--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>demo5</t>
+  </si>
+  <si>
+    <t>demo6</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
   </si>
 </sst>
 </file>
@@ -71,6 +77,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -283,6 +290,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
